--- a/data/trans_camb/P17_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P17_R2-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.324870470198202</v>
+        <v>-5.478482196667517</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-17.38401302993035</v>
+        <v>-17.22455205498726</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-21.63927881624726</v>
+        <v>-21.36808041207788</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.367616636925266</v>
+        <v>-8.312719373589131</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-23.05581461801411</v>
+        <v>-22.56593843428297</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-25.7942426978349</v>
+        <v>-25.60576500176031</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.408643104064186</v>
+        <v>-5.480820888510755</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-18.71414836938791</v>
+        <v>-18.91286304605523</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-22.36813129745038</v>
+        <v>-22.36035151574665</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.159660400494997</v>
+        <v>3.987076939069967</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-8.933018368588263</v>
+        <v>-8.784614506112835</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-13.36106952483163</v>
+        <v>-13.00275209877723</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.981428302123851</v>
+        <v>1.833441863899799</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-13.65396027491871</v>
+        <v>-12.9390368302312</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-16.78509350471426</v>
+        <v>-16.56889943364834</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.576603800380876</v>
+        <v>1.402233714792005</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-12.40402014778906</v>
+        <v>-12.60367948802263</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-16.22103144440749</v>
+        <v>-16.1867418723239</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1853394435158411</v>
+        <v>-0.1978081531822823</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6153012679558549</v>
+        <v>-0.6080226265526794</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7598472899998077</v>
+        <v>-0.757155935326616</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2167682914463851</v>
+        <v>-0.2127153135746281</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5911245071041645</v>
+        <v>-0.5854580946818472</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6604859567374357</v>
+        <v>-0.6526901808866842</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1619335432237892</v>
+        <v>-0.1673555424214664</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5692542791239295</v>
+        <v>-0.5727292663395936</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6801329807188493</v>
+        <v>-0.680133040947751</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1862057152099631</v>
+        <v>0.1681857210526433</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.3709774698542433</v>
+        <v>-0.3670103320880618</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.5401386906681339</v>
+        <v>-0.5271266470801907</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.05935687390532864</v>
+        <v>0.05401777813692717</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.3934813073384435</v>
+        <v>-0.3887387576744192</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4971885467245271</v>
+        <v>-0.4983894960335271</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05470354726553573</v>
+        <v>0.04739584524090651</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.417509128806849</v>
+        <v>-0.4247472802886083</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.5479931118907279</v>
+        <v>-0.5436230355898829</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-6.767974893360693</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-8.923366621357836</v>
+        <v>-8.92336662135784</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7398752799449659</v>
+        <v>-0.4828103683983946</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.237191457589743</v>
+        <v>-9.173069899780494</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.36375866841709</v>
+        <v>-10.54064944521139</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.486778837506611</v>
+        <v>-3.118622391734858</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-11.97324733121452</v>
+        <v>-12.45264844841087</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-14.81575236396583</v>
+        <v>-14.87784982857337</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.9408433460072174</v>
+        <v>-1.009762969601433</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-9.353809653377517</v>
+        <v>-9.64291378176662</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-11.46697374187018</v>
+        <v>-11.67870352868304</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.373244308125364</v>
+        <v>6.85268043040264</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.98684953251886</v>
+        <v>-1.79129140866999</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.86286844860373</v>
+        <v>-2.418794190086514</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.416958940435273</v>
+        <v>5.522173877579309</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-3.923804541514203</v>
+        <v>-4.389748174555865</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-7.419452911444795</v>
+        <v>-7.377869692845104</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.827260845410371</v>
+        <v>4.884081284237491</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-4.133950502145791</v>
+        <v>-4.097942833693914</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-5.98385481189666</v>
+        <v>-6.243277646385495</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.2528583666058606</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3333859749857009</v>
+        <v>-0.3333859749857011</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.03416446780544489</v>
+        <v>-0.02155524521667293</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3799176245485376</v>
+        <v>-0.3762940816915052</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4269264108429991</v>
+        <v>-0.4489179688508857</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1077598938524986</v>
+        <v>-0.09299662769996134</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3593759017030838</v>
+        <v>-0.3627820385905901</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4408416650111097</v>
+        <v>-0.4408487486515547</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03000671043813416</v>
+        <v>-0.035617404041931</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3330021842610693</v>
+        <v>-0.3397371910946795</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4076261070516538</v>
+        <v>-0.4130499561818441</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3583899479622715</v>
+        <v>0.3448075925934213</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.09526770232327697</v>
+        <v>-0.08758293169596794</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1425658435517977</v>
+        <v>-0.1134474500076732</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1834763228850463</v>
+        <v>0.1852745600729711</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1381096050302142</v>
+        <v>-0.1479062815594803</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2594550230963807</v>
+        <v>-0.2570774211167736</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1904200292269269</v>
+        <v>0.1926934678076925</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1597522091335375</v>
+        <v>-0.1585513506496191</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.2409162268746944</v>
+        <v>-0.2428238997322953</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-6.44602209523642</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-4.658425295171825</v>
+        <v>-4.658425295171831</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-1.504628097829208</v>
@@ -1092,7 +1092,7 @@
         <v>-4.264662710438577</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-5.747690601542571</v>
+        <v>-5.747690601542573</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.12352724489281</v>
+        <v>-7.193041312495947</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.580835249916551</v>
+        <v>-6.740593210726384</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-11.4408043000733</v>
+        <v>-11.67564593939207</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.648877410846008</v>
+        <v>-5.743600269662947</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-11.87524962946939</v>
+        <v>-11.74677866002403</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.220116958537632</v>
+        <v>-9.340436595873609</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.898879733464378</v>
+        <v>-5.245865581972272</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-7.407037515570009</v>
+        <v>-7.728231244406287</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-9.252763629770024</v>
+        <v>-9.042948337267537</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.661624515583392</v>
+        <v>2.608121167679672</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.231753605702711</v>
+        <v>2.827176096724123</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.036098967013779</v>
+        <v>-2.11811351629692</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.871103817465515</v>
+        <v>4.526111009144068</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.922599672375392</v>
+        <v>-1.632988535655368</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.153189061795377</v>
+        <v>-0.2556240396001668</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.745567884086738</v>
+        <v>2.138616132006284</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.6623567290092615</v>
+        <v>-1.03419254415683</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-2.57806669164265</v>
+        <v>-2.346753836795879</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.1917954638753614</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1386071638005188</v>
+        <v>-0.1386071638005189</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.049383284696734</v>
@@ -1197,7 +1197,7 @@
         <v>-0.1399701714124438</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1886445173622818</v>
+        <v>-0.1886445173622819</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2424164264549731</v>
+        <v>-0.2448064807515025</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.254374215720377</v>
+        <v>-0.2277171431139824</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3827181385310378</v>
+        <v>-0.3893406153413033</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1590488440565204</v>
+        <v>-0.163202180767275</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3296986389442427</v>
+        <v>-0.325508815706114</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2550173643777618</v>
+        <v>-0.2564957821738703</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1535867909717777</v>
+        <v>-0.1621705594376267</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2322525283289699</v>
+        <v>-0.2381603198111655</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2848029597236824</v>
+        <v>-0.2806739299558792</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1036833595606478</v>
+        <v>0.1106428985628427</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.09018816403177898</v>
+        <v>0.1179657295520744</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.08209306841074872</v>
+        <v>-0.08594358527106882</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1271178009696544</v>
+        <v>0.144421033913418</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.05863244371073262</v>
+        <v>-0.05721998077294379</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004979839009240198</v>
+        <v>-0.002466720444413916</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05831763307409709</v>
+        <v>0.07518965695702053</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.02368778930755644</v>
+        <v>-0.03496085944970586</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.08901834350565171</v>
+        <v>-0.0775531579100823</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-2.44658926287642</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-8.045264634096599</v>
+        <v>-8.045264634096602</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>7.335232460000932</v>
@@ -1306,7 +1306,7 @@
         <v>-2.196051750863587</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-7.135744281569253</v>
+        <v>-7.135744281569256</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.769353863261124</v>
+        <v>1.902398174659049</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.81696872239021</v>
+        <v>-5.427359889563834</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-9.622657412383173</v>
+        <v>-9.977243061240625</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.838001020932555</v>
+        <v>4.422910949785647</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.056716569475241</v>
+        <v>-6.273072397160923</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-11.33365576021277</v>
+        <v>-11.47104552305325</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.299516341673459</v>
+        <v>4.518106255521416</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.872692841230942</v>
+        <v>-4.701804719812633</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-9.526631235204508</v>
+        <v>-9.73580692427667</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.686666087145824</v>
+        <v>9.895298777224525</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.739985471681902</v>
+        <v>1.902749853782688</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-2.982482316767432</v>
+        <v>-2.924140021282509</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.85213904297871</v>
+        <v>12.673903888759</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.655673300064385</v>
+        <v>1.498351893191731</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-4.814932295530876</v>
+        <v>-4.760912135570635</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>9.984092930717098</v>
+        <v>10.17497876111844</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3911951761899309</v>
+        <v>0.7096860776200981</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-4.846870165380116</v>
+        <v>-4.761418766004309</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.09827006487974596</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.3231472849013861</v>
+        <v>-0.3231472849013862</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.324521029088538</v>
@@ -1411,7 +1411,7 @@
         <v>-0.09715642660380615</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3156953907316539</v>
+        <v>-0.315695390731654</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.08022049213903323</v>
+        <v>0.08914533590540873</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2616205191944353</v>
+        <v>-0.2478439447830189</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4409101451075981</v>
+        <v>-0.4530002095948197</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1771344377122493</v>
+        <v>0.1637095104593507</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2255750921295233</v>
+        <v>-0.2344499284388815</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.427027674670908</v>
+        <v>-0.4205290272486525</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1797446719567917</v>
+        <v>0.1894634021828388</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1996552752867913</v>
+        <v>-0.1987803130967647</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3980012526017238</v>
+        <v>-0.4012841049325016</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5163558337418467</v>
+        <v>0.5445788003228367</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.09417169044728366</v>
+        <v>0.1032969917970884</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1571240916401185</v>
+        <v>-0.1603469133492952</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5592531885434756</v>
+        <v>0.5632991664713017</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.0751419982766719</v>
+        <v>0.06650546537923437</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2115023427407836</v>
+        <v>-0.204636240027347</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4733337377866303</v>
+        <v>0.467217078794905</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.0199445593406296</v>
+        <v>0.03226677572925249</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2260340796947444</v>
+        <v>-0.2182924488192478</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-5.239783882023633</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-8.605650332519238</v>
+        <v>-8.605650332519236</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>2.143695038507282</v>
@@ -1511,7 +1511,7 @@
         <v>-7.899630634738338</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-10.76377407342419</v>
+        <v>-10.7637740734242</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.055146431753119</v>
@@ -1520,7 +1520,7 @@
         <v>-6.580875152014934</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-9.671843462853328</v>
+        <v>-9.67184346285333</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.1907652989217352</v>
+        <v>-0.1813677613413658</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.046763902112374</v>
+        <v>-7.350248310143476</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-10.56238757252236</v>
+        <v>-10.84955716914548</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.06024259636609489</v>
+        <v>-0.1505200766474334</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.975206331345602</v>
+        <v>-10.00486907565151</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-12.94694011337094</v>
+        <v>-12.81125183458487</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.4185382678529517</v>
+        <v>0.5101447590782072</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-8.04531705781347</v>
+        <v>-8.060103849733141</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-11.07032498464319</v>
+        <v>-11.03392168134888</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.070202441957654</v>
+        <v>3.776421256318833</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-3.172833815235784</v>
+        <v>-3.211945274047613</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-6.610392034599736</v>
+        <v>-6.58663838470214</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.386860129940164</v>
+        <v>4.396962193530018</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-5.639980130540249</v>
+        <v>-5.701017916555434</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-8.956229171600819</v>
+        <v>-8.941113279477147</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.473194847356608</v>
+        <v>3.560074723462497</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-5.135176157844967</v>
+        <v>-5.183448480260111</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-8.283342519777188</v>
+        <v>-8.330145055819914</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.2239181500534156</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.3677558742594678</v>
+        <v>-0.3677558742594677</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.06942464991713598</v>
@@ -1616,7 +1616,7 @@
         <v>-0.2558335404243317</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.3485902767937395</v>
+        <v>-0.3485902767937396</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.07555348922502036</v>
@@ -1625,7 +1625,7 @@
         <v>-0.241933164570092</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.3555666445789082</v>
+        <v>-0.3555666445789083</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.008104090387582606</v>
+        <v>-0.007653809561603548</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2908033279172575</v>
+        <v>-0.3015856691156893</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4328184173305876</v>
+        <v>-0.4399760393167013</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.002217375695325636</v>
+        <v>-0.005184462919379264</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3138319308360457</v>
+        <v>-0.3121680177456845</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3998881674936871</v>
+        <v>-0.4022922861674542</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01514292247010616</v>
+        <v>0.01826599622147599</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2848657320324597</v>
+        <v>-0.2898901589079621</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3944843544627303</v>
+        <v>-0.3946828895311053</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1791222426129988</v>
+        <v>0.1705493250841539</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1434566779680402</v>
+        <v>-0.1426697800720368</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2935368690641679</v>
+        <v>-0.2935896028618966</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1475527122746902</v>
+        <v>0.1471053879101016</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.192887854767532</v>
+        <v>-0.193441787963216</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.2980275260834921</v>
+        <v>-0.2996307404139243</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1314324712744034</v>
+        <v>0.1356779742364959</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1916753838221222</v>
+        <v>-0.1955810954190857</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3130374802176336</v>
+        <v>-0.3123449798004228</v>
       </c>
     </row>
     <row r="34">
